--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1217"/>
+  <dimension ref="A1:I1218"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43047,6 +43047,41 @@
         <v>999300</v>
       </c>
     </row>
+    <row r="1218">
+      <c r="A1218" t="n">
+        <v>1581379200</v>
+      </c>
+      <c r="B1218" t="inlineStr">
+        <is>
+          <t>2020-02-11</t>
+        </is>
+      </c>
+      <c r="C1218" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1218" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1218" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1218" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1218" t="n">
+        <v>1206500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1218"/>
+  <dimension ref="A1:I1219"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43082,6 +43082,41 @@
         <v>1206500</v>
       </c>
     </row>
+    <row r="1219">
+      <c r="A1219" t="n">
+        <v>1581465600</v>
+      </c>
+      <c r="B1219" t="inlineStr">
+        <is>
+          <t>2020-02-12</t>
+        </is>
+      </c>
+      <c r="C1219" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1219" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1219" t="n">
+        <v>0.355</v>
+      </c>
+      <c r="G1219" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1219" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1219" t="n">
+        <v>3749200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1219"/>
+  <dimension ref="A1:I1220"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43117,6 +43117,41 @@
         <v>3749200</v>
       </c>
     </row>
+    <row r="1220">
+      <c r="A1220" t="n">
+        <v>1581552000</v>
+      </c>
+      <c r="B1220" t="inlineStr">
+        <is>
+          <t>2020-02-13</t>
+        </is>
+      </c>
+      <c r="C1220" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1220" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1220" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1220" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1220" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1220" t="n">
+        <v>772600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1220"/>
+  <dimension ref="A1:I1221"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43152,6 +43152,41 @@
         <v>772600</v>
       </c>
     </row>
+    <row r="1221">
+      <c r="A1221" t="n">
+        <v>1581638400</v>
+      </c>
+      <c r="B1221" t="inlineStr">
+        <is>
+          <t>2020-02-14</t>
+        </is>
+      </c>
+      <c r="C1221" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1221" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1221" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1221" t="n">
+        <v>0.35</v>
+      </c>
+      <c r="G1221" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="H1221" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1221" t="n">
+        <v>2832200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1221"/>
+  <dimension ref="A1:I1222"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43187,6 +43187,41 @@
         <v>2832200</v>
       </c>
     </row>
+    <row r="1222">
+      <c r="A1222" t="n">
+        <v>1581897600</v>
+      </c>
+      <c r="B1222" t="inlineStr">
+        <is>
+          <t>2020-02-17</t>
+        </is>
+      </c>
+      <c r="C1222" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1222" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1222" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1222" t="n">
+        <v>0.345</v>
+      </c>
+      <c r="G1222" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="H1222" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="I1222" t="n">
+        <v>1443500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1222"/>
+  <dimension ref="A1:I1223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43222,6 +43222,41 @@
         <v>1443500</v>
       </c>
     </row>
+    <row r="1223">
+      <c r="A1223" t="n">
+        <v>1581984000</v>
+      </c>
+      <c r="B1223" t="inlineStr">
+        <is>
+          <t>2020-02-18</t>
+        </is>
+      </c>
+      <c r="C1223" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1223" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1223" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1223" t="n">
+        <v>0.34</v>
+      </c>
+      <c r="G1223" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1223" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="I1223" t="n">
+        <v>1163200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1223"/>
+  <dimension ref="A1:I1224"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43257,6 +43257,41 @@
         <v>1163200</v>
       </c>
     </row>
+    <row r="1224">
+      <c r="A1224" t="n">
+        <v>1582070400</v>
+      </c>
+      <c r="B1224" t="inlineStr">
+        <is>
+          <t>2020-02-19</t>
+        </is>
+      </c>
+      <c r="C1224" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1224" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="F1224" t="n">
+        <v>0.335</v>
+      </c>
+      <c r="G1224" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="H1224" t="n">
+        <v>0.325</v>
+      </c>
+      <c r="I1224" t="n">
+        <v>785300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1224"/>
+  <dimension ref="A1:I1225"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43292,6 +43292,41 @@
         <v>785300</v>
       </c>
     </row>
+    <row r="1225">
+      <c r="A1225" t="n">
+        <v>1582156800</v>
+      </c>
+      <c r="B1225" t="inlineStr">
+        <is>
+          <t>2020-02-20</t>
+        </is>
+      </c>
+      <c r="C1225" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1225" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1225" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="F1225" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="G1225" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1225" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="I1225" t="n">
+        <v>1305100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1225"/>
+  <dimension ref="A1:I1226"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43327,6 +43327,41 @@
         <v>1305100</v>
       </c>
     </row>
+    <row r="1226">
+      <c r="A1226" t="n">
+        <v>1582243200</v>
+      </c>
+      <c r="B1226" t="inlineStr">
+        <is>
+          <t>2020-02-21</t>
+        </is>
+      </c>
+      <c r="C1226" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1226" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="F1226" t="n">
+        <v>0.32</v>
+      </c>
+      <c r="G1226" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="H1226" t="n">
+        <v>0.315</v>
+      </c>
+      <c r="I1226" t="n">
+        <v>706000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1226"/>
+  <dimension ref="A1:I1227"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43362,6 +43362,41 @@
         <v>706000</v>
       </c>
     </row>
+    <row r="1227">
+      <c r="A1227" t="n">
+        <v>1582502400</v>
+      </c>
+      <c r="B1227" t="inlineStr">
+        <is>
+          <t>2020-02-24</t>
+        </is>
+      </c>
+      <c r="C1227" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1227" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="F1227" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1227" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="H1227" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="I1227" t="n">
+        <v>1432700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1227"/>
+  <dimension ref="A1:I1228"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43397,6 +43397,41 @@
         <v>1432700</v>
       </c>
     </row>
+    <row r="1228">
+      <c r="A1228" t="n">
+        <v>1582588800</v>
+      </c>
+      <c r="B1228" t="inlineStr">
+        <is>
+          <t>2020-02-25</t>
+        </is>
+      </c>
+      <c r="C1228" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1228" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1228" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1228" t="n">
+        <v>0.31</v>
+      </c>
+      <c r="G1228" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="H1228" t="n">
+        <v>0.305</v>
+      </c>
+      <c r="I1228" t="n">
+        <v>612100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1228"/>
+  <dimension ref="A1:I1229"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43432,6 +43432,41 @@
         <v>612100</v>
       </c>
     </row>
+    <row r="1229">
+      <c r="A1229" t="n">
+        <v>1582675200</v>
+      </c>
+      <c r="B1229" t="inlineStr">
+        <is>
+          <t>2020-02-26</t>
+        </is>
+      </c>
+      <c r="C1229" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1229" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1229" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1229" t="n">
+        <v>0.295</v>
+      </c>
+      <c r="G1229" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="H1229" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="I1229" t="n">
+        <v>4113000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1229"/>
+  <dimension ref="A1:I1231"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43467,6 +43467,76 @@
         <v>4113000</v>
       </c>
     </row>
+    <row r="1230">
+      <c r="A1230" t="n">
+        <v>1582761600</v>
+      </c>
+      <c r="B1230" t="inlineStr">
+        <is>
+          <t>2020-02-27</t>
+        </is>
+      </c>
+      <c r="C1230" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1230" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1230" t="n">
+        <v>0.28</v>
+      </c>
+      <c r="F1230" t="n">
+        <v>0.285</v>
+      </c>
+      <c r="G1230" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="H1230" t="n">
+        <v>0.275</v>
+      </c>
+      <c r="I1230" t="n">
+        <v>701500</v>
+      </c>
+    </row>
+    <row r="1231">
+      <c r="A1231" t="n">
+        <v>1582848000</v>
+      </c>
+      <c r="B1231" t="inlineStr">
+        <is>
+          <t>2020-02-28</t>
+        </is>
+      </c>
+      <c r="C1231" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1231" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1231" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="F1231" t="n">
+        <v>0.27</v>
+      </c>
+      <c r="G1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="H1231" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="I1231" t="n">
+        <v>1406700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1231"/>
+  <dimension ref="A1:I1233"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43537,6 +43537,76 @@
         <v>1406700</v>
       </c>
     </row>
+    <row r="1232">
+      <c r="A1232" t="n">
+        <v>1583107200</v>
+      </c>
+      <c r="B1232" t="inlineStr">
+        <is>
+          <t>2020-03-02</t>
+        </is>
+      </c>
+      <c r="C1232" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1232" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1232" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="F1232" t="n">
+        <v>0.245</v>
+      </c>
+      <c r="G1232" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="H1232" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="I1232" t="n">
+        <v>1422700</v>
+      </c>
+    </row>
+    <row r="1233">
+      <c r="A1233" t="n">
+        <v>1583193600</v>
+      </c>
+      <c r="B1233" t="inlineStr">
+        <is>
+          <t>2020-03-03</t>
+        </is>
+      </c>
+      <c r="C1233" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1233" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1233" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1233" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1233" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1233" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1233" t="n">
+        <v>606400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1233"/>
+  <dimension ref="A1:I1234"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43607,6 +43607,41 @@
         <v>606400</v>
       </c>
     </row>
+    <row r="1234">
+      <c r="A1234" t="n">
+        <v>1583280000</v>
+      </c>
+      <c r="B1234" t="inlineStr">
+        <is>
+          <t>2020-03-04</t>
+        </is>
+      </c>
+      <c r="C1234" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1234" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="F1234" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1234" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="H1234" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1234" t="n">
+        <v>337300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1234"/>
+  <dimension ref="A1:I1235"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43642,6 +43642,41 @@
         <v>337300</v>
       </c>
     </row>
+    <row r="1235">
+      <c r="A1235" t="n">
+        <v>1583366400</v>
+      </c>
+      <c r="B1235" t="inlineStr">
+        <is>
+          <t>2020-03-05</t>
+        </is>
+      </c>
+      <c r="C1235" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1235" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1235" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="F1235" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="G1235" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="H1235" t="n">
+        <v>0.24</v>
+      </c>
+      <c r="I1235" t="n">
+        <v>838200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1235"/>
+  <dimension ref="A1:I1236"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43677,6 +43677,41 @@
         <v>838200</v>
       </c>
     </row>
+    <row r="1236">
+      <c r="A1236" t="n">
+        <v>1583452800</v>
+      </c>
+      <c r="B1236" t="inlineStr">
+        <is>
+          <t>2020-03-06</t>
+        </is>
+      </c>
+      <c r="C1236" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1236" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1236" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="F1236" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="G1236" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="H1236" t="n">
+        <v>0.225</v>
+      </c>
+      <c r="I1236" t="n">
+        <v>416900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1236"/>
+  <dimension ref="A1:I1237"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43712,6 +43712,41 @@
         <v>416900</v>
       </c>
     </row>
+    <row r="1237">
+      <c r="A1237" t="n">
+        <v>1583712000</v>
+      </c>
+      <c r="B1237" t="inlineStr">
+        <is>
+          <t>2020-03-09</t>
+        </is>
+      </c>
+      <c r="C1237" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1237" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1237" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F1237" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1237" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="I1237" t="n">
+        <v>1183400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1237"/>
+  <dimension ref="A1:I1239"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43747,6 +43747,76 @@
         <v>1183400</v>
       </c>
     </row>
+    <row r="1238">
+      <c r="A1238" t="n">
+        <v>1583798400</v>
+      </c>
+      <c r="B1238" t="inlineStr">
+        <is>
+          <t>2020-03-10</t>
+        </is>
+      </c>
+      <c r="C1238" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1238" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1238" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G1238" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1238" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I1238" t="n">
+        <v>735200</v>
+      </c>
+    </row>
+    <row r="1239">
+      <c r="A1239" t="n">
+        <v>1583884800</v>
+      </c>
+      <c r="B1239" t="inlineStr">
+        <is>
+          <t>2020-03-11</t>
+        </is>
+      </c>
+      <c r="C1239" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1239" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1239" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F1239" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="G1239" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H1239" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I1239" t="n">
+        <v>464700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1239"/>
+  <dimension ref="A1:I1240"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43817,6 +43817,41 @@
         <v>464700</v>
       </c>
     </row>
+    <row r="1240">
+      <c r="A1240" t="n">
+        <v>1583971200</v>
+      </c>
+      <c r="B1240" t="inlineStr">
+        <is>
+          <t>2020-03-12</t>
+        </is>
+      </c>
+      <c r="C1240" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1240" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1240" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F1240" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G1240" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H1240" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I1240" t="n">
+        <v>527500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I1240"/>
+  <dimension ref="A1:I1241"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -43852,6 +43852,41 @@
         <v>527500</v>
       </c>
     </row>
+    <row r="1241">
+      <c r="A1241" t="n">
+        <v>1584057600</v>
+      </c>
+      <c r="B1241" t="inlineStr">
+        <is>
+          <t>2020-03-13</t>
+        </is>
+      </c>
+      <c r="C1241" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D1241" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E1241" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F1241" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="G1241" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H1241" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I1241" t="n">
+        <v>888300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2347"/>
+  <dimension ref="A1:I2348"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82597,6 +82597,41 @@
         <v>888300</v>
       </c>
     </row>
+    <row r="2348">
+      <c r="A2348" t="n">
+        <v>1584316800</v>
+      </c>
+      <c r="B2348" t="inlineStr">
+        <is>
+          <t>2020-03-16</t>
+        </is>
+      </c>
+      <c r="C2348" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2348" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2348" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2348" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2348" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2348" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2348" t="n">
+        <v>1151100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2348"/>
+  <dimension ref="A1:I2349"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82632,6 +82632,41 @@
         <v>1151100</v>
       </c>
     </row>
+    <row r="2349">
+      <c r="A2349" t="n">
+        <v>1584403200</v>
+      </c>
+      <c r="B2349" t="inlineStr">
+        <is>
+          <t>2020-03-17</t>
+        </is>
+      </c>
+      <c r="C2349" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2349" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2349" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2349" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2349" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2349" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2349" t="n">
+        <v>796200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2349"/>
+  <dimension ref="A1:I2350"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82667,6 +82667,41 @@
         <v>796200</v>
       </c>
     </row>
+    <row r="2350">
+      <c r="A2350" t="n">
+        <v>1584489600</v>
+      </c>
+      <c r="B2350" t="inlineStr">
+        <is>
+          <t>2020-03-18</t>
+        </is>
+      </c>
+      <c r="C2350" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2350" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2350" t="n">
+        <v>0.115</v>
+      </c>
+      <c r="F2350" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2350" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="H2350" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2350" t="n">
+        <v>278500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2350"/>
+  <dimension ref="A1:I2351"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82702,6 +82702,41 @@
         <v>278500</v>
       </c>
     </row>
+    <row r="2351">
+      <c r="A2351" t="n">
+        <v>1584576000</v>
+      </c>
+      <c r="B2351" t="inlineStr">
+        <is>
+          <t>2020-03-19</t>
+        </is>
+      </c>
+      <c r="C2351" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2351" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2351" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="F2351" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="G2351" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="H2351" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="I2351" t="n">
+        <v>612500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2351"/>
+  <dimension ref="A1:I2352"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82737,6 +82737,41 @@
         <v>612500</v>
       </c>
     </row>
+    <row r="2352">
+      <c r="A2352" t="n">
+        <v>1584662400</v>
+      </c>
+      <c r="B2352" t="inlineStr">
+        <is>
+          <t>2020-03-20</t>
+        </is>
+      </c>
+      <c r="C2352" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2352" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2352" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="F2352" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="G2352" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2352" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="I2352" t="n">
+        <v>660100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2352"/>
+  <dimension ref="A1:I2353"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82772,6 +82772,41 @@
         <v>660100</v>
       </c>
     </row>
+    <row r="2353">
+      <c r="A2353" t="n">
+        <v>1584921600</v>
+      </c>
+      <c r="B2353" t="inlineStr">
+        <is>
+          <t>2020-03-23</t>
+        </is>
+      </c>
+      <c r="C2353" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2353" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2353" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2353" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="G2353" t="n">
+        <v>0.105</v>
+      </c>
+      <c r="H2353" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="I2353" t="n">
+        <v>492600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2353"/>
+  <dimension ref="A1:I2354"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82807,6 +82807,41 @@
         <v>492600</v>
       </c>
     </row>
+    <row r="2354">
+      <c r="A2354" t="n">
+        <v>1585008000</v>
+      </c>
+      <c r="B2354" t="inlineStr">
+        <is>
+          <t>2020-03-24</t>
+        </is>
+      </c>
+      <c r="C2354" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2354" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2354" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2354" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="G2354" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2354" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="I2354" t="n">
+        <v>474900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2354"/>
+  <dimension ref="A1:I2355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82842,6 +82842,41 @@
         <v>474900</v>
       </c>
     </row>
+    <row r="2355">
+      <c r="A2355" t="n">
+        <v>1585094400</v>
+      </c>
+      <c r="B2355" t="inlineStr">
+        <is>
+          <t>2020-03-25</t>
+        </is>
+      </c>
+      <c r="C2355" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2355" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2355" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="F2355" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="G2355" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="H2355" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="I2355" t="n">
+        <v>571900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2355"/>
+  <dimension ref="A1:I2356"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82877,6 +82877,41 @@
         <v>571900</v>
       </c>
     </row>
+    <row r="2356">
+      <c r="A2356" t="n">
+        <v>1585180800</v>
+      </c>
+      <c r="B2356" t="inlineStr">
+        <is>
+          <t>2020-03-26</t>
+        </is>
+      </c>
+      <c r="C2356" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2356" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2356" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="F2356" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="G2356" t="n">
+        <v>0.12</v>
+      </c>
+      <c r="H2356" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="I2356" t="n">
+        <v>2511300</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2356"/>
+  <dimension ref="A1:I2357"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82912,6 +82912,41 @@
         <v>2511300</v>
       </c>
     </row>
+    <row r="2357">
+      <c r="A2357" t="n">
+        <v>1585267200</v>
+      </c>
+      <c r="B2357" t="inlineStr">
+        <is>
+          <t>2020-03-27</t>
+        </is>
+      </c>
+      <c r="C2357" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2357" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2357" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="F2357" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2357" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2357" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2357" t="n">
+        <v>2063100</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2357"/>
+  <dimension ref="A1:I2358"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82947,6 +82947,41 @@
         <v>2063100</v>
       </c>
     </row>
+    <row r="2358">
+      <c r="A2358" t="n">
+        <v>1585526400</v>
+      </c>
+      <c r="B2358" t="inlineStr">
+        <is>
+          <t>2020-03-30</t>
+        </is>
+      </c>
+      <c r="C2358" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2358" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2358" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="F2358" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="G2358" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="H2358" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="I2358" t="n">
+        <v>219000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2358"/>
+  <dimension ref="A1:I2359"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -82982,6 +82982,41 @@
         <v>219000</v>
       </c>
     </row>
+    <row r="2359">
+      <c r="A2359" t="n">
+        <v>1585612800</v>
+      </c>
+      <c r="B2359" t="inlineStr">
+        <is>
+          <t>2020-03-31</t>
+        </is>
+      </c>
+      <c r="C2359" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2359" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2359" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="F2359" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="G2359" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="H2359" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2359" t="n">
+        <v>1370000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2359"/>
+  <dimension ref="A1:I2360"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83017,6 +83017,41 @@
         <v>1370000</v>
       </c>
     </row>
+    <row r="2360">
+      <c r="A2360" t="n">
+        <v>1585699200</v>
+      </c>
+      <c r="B2360" t="inlineStr">
+        <is>
+          <t>2020-04-01</t>
+        </is>
+      </c>
+      <c r="C2360" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2360" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2360" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2360" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="G2360" t="n">
+        <v>0.155</v>
+      </c>
+      <c r="H2360" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="I2360" t="n">
+        <v>2021700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2360"/>
+  <dimension ref="A1:I2361"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83052,6 +83052,41 @@
         <v>2021700</v>
       </c>
     </row>
+    <row r="2361">
+      <c r="A2361" t="n">
+        <v>1585785600</v>
+      </c>
+      <c r="B2361" t="inlineStr">
+        <is>
+          <t>2020-04-02</t>
+        </is>
+      </c>
+      <c r="C2361" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2361" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2361" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2361" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2361" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2361" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2361" t="n">
+        <v>606500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2361"/>
+  <dimension ref="A1:I2362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83087,6 +83087,41 @@
         <v>606500</v>
       </c>
     </row>
+    <row r="2362">
+      <c r="A2362" t="n">
+        <v>1585872000</v>
+      </c>
+      <c r="B2362" t="inlineStr">
+        <is>
+          <t>2020-04-03</t>
+        </is>
+      </c>
+      <c r="C2362" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2362" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2362" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="F2362" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="G2362" t="n">
+        <v>0.16</v>
+      </c>
+      <c r="H2362" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="I2362" t="n">
+        <v>205900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2362"/>
+  <dimension ref="A1:I2363"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83122,6 +83122,41 @@
         <v>205900</v>
       </c>
     </row>
+    <row r="2363">
+      <c r="A2363" t="n">
+        <v>1586131200</v>
+      </c>
+      <c r="B2363" t="inlineStr">
+        <is>
+          <t>2020-04-06</t>
+        </is>
+      </c>
+      <c r="C2363" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2363" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2363" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="F2363" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="G2363" t="n">
+        <v>0.165</v>
+      </c>
+      <c r="H2363" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="I2363" t="n">
+        <v>433600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2363"/>
+  <dimension ref="A1:I2364"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83157,6 +83157,41 @@
         <v>433600</v>
       </c>
     </row>
+    <row r="2364">
+      <c r="A2364" t="n">
+        <v>1586217600</v>
+      </c>
+      <c r="B2364" t="inlineStr">
+        <is>
+          <t>2020-04-07</t>
+        </is>
+      </c>
+      <c r="C2364" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2364" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2364" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2364" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2364" t="n">
+        <v>0.175</v>
+      </c>
+      <c r="H2364" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2364" t="n">
+        <v>1017800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2364"/>
+  <dimension ref="A1:I2365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83192,6 +83192,41 @@
         <v>1017800</v>
       </c>
     </row>
+    <row r="2365">
+      <c r="A2365" t="n">
+        <v>1586304000</v>
+      </c>
+      <c r="B2365" t="inlineStr">
+        <is>
+          <t>2020-04-08</t>
+        </is>
+      </c>
+      <c r="C2365" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2365" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2365" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2365" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2365" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2365" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2365" t="n">
+        <v>1633700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2365"/>
+  <dimension ref="A1:I2366"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83227,6 +83227,41 @@
         <v>1633700</v>
       </c>
     </row>
+    <row r="2366">
+      <c r="A2366" t="n">
+        <v>1586390400</v>
+      </c>
+      <c r="B2366" t="inlineStr">
+        <is>
+          <t>2020-04-09</t>
+        </is>
+      </c>
+      <c r="C2366" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2366" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2366" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2366" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2366" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2366" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2366" t="n">
+        <v>410000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2366"/>
+  <dimension ref="A1:I2367"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83262,6 +83262,41 @@
         <v>410000</v>
       </c>
     </row>
+    <row r="2367">
+      <c r="A2367" t="n">
+        <v>1586476800</v>
+      </c>
+      <c r="B2367" t="inlineStr">
+        <is>
+          <t>2020-04-10</t>
+        </is>
+      </c>
+      <c r="C2367" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2367" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2367" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2367" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2367" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2367" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2367" t="n">
+        <v>704900</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2367"/>
+  <dimension ref="A1:I2368"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83297,6 +83297,41 @@
         <v>704900</v>
       </c>
     </row>
+    <row r="2368">
+      <c r="A2368" t="n">
+        <v>1586736000</v>
+      </c>
+      <c r="B2368" t="inlineStr">
+        <is>
+          <t>2020-04-13</t>
+        </is>
+      </c>
+      <c r="C2368" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2368" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2368" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="F2368" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2368" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2368" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2368" t="n">
+        <v>193000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2368"/>
+  <dimension ref="A1:I2369"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83332,6 +83332,41 @@
         <v>193000</v>
       </c>
     </row>
+    <row r="2369">
+      <c r="A2369" t="n">
+        <v>1586822400</v>
+      </c>
+      <c r="B2369" t="inlineStr">
+        <is>
+          <t>2020-04-14</t>
+        </is>
+      </c>
+      <c r="C2369" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2369" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2369" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2369" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2369" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2369" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2369" t="n">
+        <v>295800</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2369"/>
+  <dimension ref="A1:I2370"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83367,6 +83367,41 @@
         <v>295800</v>
       </c>
     </row>
+    <row r="2370">
+      <c r="A2370" t="n">
+        <v>1586908800</v>
+      </c>
+      <c r="B2370" t="inlineStr">
+        <is>
+          <t>2020-04-15</t>
+        </is>
+      </c>
+      <c r="C2370" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2370" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2370" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2370" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="G2370" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2370" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="I2370" t="n">
+        <v>157200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2370"/>
+  <dimension ref="A1:I2371"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83402,6 +83402,41 @@
         <v>157200</v>
       </c>
     </row>
+    <row r="2371">
+      <c r="A2371" t="n">
+        <v>1586995200</v>
+      </c>
+      <c r="B2371" t="inlineStr">
+        <is>
+          <t>2020-04-16</t>
+        </is>
+      </c>
+      <c r="C2371" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2371" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2371" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="F2371" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2371" t="n">
+        <v>0.18</v>
+      </c>
+      <c r="H2371" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2371" t="n">
+        <v>123000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2371"/>
+  <dimension ref="A1:I2372"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83437,6 +83437,41 @@
         <v>123000</v>
       </c>
     </row>
+    <row r="2372">
+      <c r="A2372" t="n">
+        <v>1587081600</v>
+      </c>
+      <c r="B2372" t="inlineStr">
+        <is>
+          <t>2020-04-17</t>
+        </is>
+      </c>
+      <c r="C2372" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2372" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2372" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2372" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2372" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2372" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2372" t="n">
+        <v>679700</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2372"/>
+  <dimension ref="A1:I2374"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83472,6 +83472,76 @@
         <v>679700</v>
       </c>
     </row>
+    <row r="2373">
+      <c r="A2373" t="n">
+        <v>1587340800</v>
+      </c>
+      <c r="B2373" t="inlineStr">
+        <is>
+          <t>2020-04-20</t>
+        </is>
+      </c>
+      <c r="C2373" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2373" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2373" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2373" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2373" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2373" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2373" t="n">
+        <v>1311800</v>
+      </c>
+    </row>
+    <row r="2374">
+      <c r="A2374" t="n">
+        <v>1587427200</v>
+      </c>
+      <c r="B2374" t="inlineStr">
+        <is>
+          <t>2020-04-21</t>
+        </is>
+      </c>
+      <c r="C2374" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2374" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2374" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="F2374" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="G2374" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="H2374" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2374" t="n">
+        <v>142400</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2374"/>
+  <dimension ref="A1:I2375"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83542,6 +83542,41 @@
         <v>142400</v>
       </c>
     </row>
+    <row r="2375">
+      <c r="A2375" t="n">
+        <v>1587513600</v>
+      </c>
+      <c r="B2375" t="inlineStr">
+        <is>
+          <t>2020-04-22</t>
+        </is>
+      </c>
+      <c r="C2375" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2375" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2375" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2375" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2375" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2375" t="n">
+        <v>290600</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2375"/>
+  <dimension ref="A1:I2378"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83577,6 +83577,111 @@
         <v>290600</v>
       </c>
     </row>
+    <row r="2376">
+      <c r="A2376" t="n">
+        <v>1587600000</v>
+      </c>
+      <c r="B2376" t="inlineStr">
+        <is>
+          <t>2020-04-23</t>
+        </is>
+      </c>
+      <c r="C2376" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2376" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2376" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2376" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2376" t="n">
+        <v>0.185</v>
+      </c>
+      <c r="H2376" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2376" t="n">
+        <v>259900</v>
+      </c>
+    </row>
+    <row r="2377">
+      <c r="A2377" t="n">
+        <v>1587686400</v>
+      </c>
+      <c r="B2377" t="inlineStr">
+        <is>
+          <t>2020-04-24</t>
+        </is>
+      </c>
+      <c r="C2377" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2377" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2377" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="F2377" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2377" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2377" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="I2377" t="n">
+        <v>207000</v>
+      </c>
+    </row>
+    <row r="2378">
+      <c r="A2378" t="n">
+        <v>1587945600</v>
+      </c>
+      <c r="B2378" t="inlineStr">
+        <is>
+          <t>2020-04-27</t>
+        </is>
+      </c>
+      <c r="C2378" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2378" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2378" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2378" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="G2378" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2378" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2378" t="n">
+        <v>94200</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2378"/>
+  <dimension ref="A1:I2379"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83682,6 +83682,41 @@
         <v>94200</v>
       </c>
     </row>
+    <row r="2379">
+      <c r="A2379" t="n">
+        <v>1588032000</v>
+      </c>
+      <c r="B2379" t="inlineStr">
+        <is>
+          <t>2020-04-28</t>
+        </is>
+      </c>
+      <c r="C2379" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2379" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2379" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2379" t="n">
+        <v>0.195</v>
+      </c>
+      <c r="G2379" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2379" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="I2379" t="n">
+        <v>99000</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2379"/>
+  <dimension ref="A1:I2380"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83717,6 +83717,41 @@
         <v>99000</v>
       </c>
     </row>
+    <row r="2380">
+      <c r="A2380" t="n">
+        <v>1588118400</v>
+      </c>
+      <c r="B2380" t="inlineStr">
+        <is>
+          <t>2020-04-29</t>
+        </is>
+      </c>
+      <c r="C2380" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2380" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2380" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="F2380" t="n">
+        <v>0.23</v>
+      </c>
+      <c r="G2380" t="n">
+        <v>0.19</v>
+      </c>
+      <c r="H2380" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2380" t="n">
+        <v>4297500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/5170.xlsx
+++ b/data/5170.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2380"/>
+  <dimension ref="A1:I2383"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -83752,6 +83752,111 @@
         <v>4297500</v>
       </c>
     </row>
+    <row r="2381">
+      <c r="A2381" t="n">
+        <v>1588204800</v>
+      </c>
+      <c r="B2381" t="inlineStr">
+        <is>
+          <t>2020-04-30</t>
+        </is>
+      </c>
+      <c r="C2381" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2381" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2381" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="F2381" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2381" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2381" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="I2381" t="n">
+        <v>1008600</v>
+      </c>
+    </row>
+    <row r="2382">
+      <c r="A2382" t="n">
+        <v>1588550400</v>
+      </c>
+      <c r="B2382" t="inlineStr">
+        <is>
+          <t>2020-05-04</t>
+        </is>
+      </c>
+      <c r="C2382" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2382" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2382" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="F2382" t="n">
+        <v>0.215</v>
+      </c>
+      <c r="G2382" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="H2382" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="I2382" t="n">
+        <v>599900</v>
+      </c>
+    </row>
+    <row r="2383">
+      <c r="A2383" t="n">
+        <v>1588636800</v>
+      </c>
+      <c r="B2383" t="inlineStr">
+        <is>
+          <t>2020-05-05</t>
+        </is>
+      </c>
+      <c r="C2383" t="inlineStr">
+        <is>
+          <t>5170</t>
+        </is>
+      </c>
+      <c r="D2383" t="inlineStr">
+        <is>
+          <t>SCABLE</t>
+        </is>
+      </c>
+      <c r="E2383" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="F2383" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="G2383" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="H2383" t="n">
+        <v>0.21</v>
+      </c>
+      <c r="I2383" t="n">
+        <v>699500</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
